--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verma\OneDrive\Desktop\Desktop Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verma\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0F774-6E82-4458-ABB5-B2E9A7078563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47CA118-515A-4BD1-849F-1243A852DFF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{10D68BA4-24F9-4C6D-B726-9F847D96FD16}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
-  <si>
-    <t>Delhi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -92,18 +81,12 @@
     <t>Uttara Mandal</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>SC</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>OutsideDelhi</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -116,9 +99,6 @@
     <t>Latbagan Police quarter-23/3  Barrackpore 700120</t>
   </si>
   <si>
-    <t>10815002720</t>
-  </si>
-  <si>
     <t>Priya Kumari</t>
   </si>
   <si>
@@ -128,9 +108,6 @@
     <t>Arti Jha</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>GN</t>
   </si>
   <si>
@@ -146,9 +123,6 @@
     <t>ward-1, Bhagwati asthan Bhadurpur Darbhanga 846002</t>
   </si>
   <si>
-    <t>10915002720</t>
-  </si>
-  <si>
     <t>PRIYA MANCHANDA</t>
   </si>
   <si>
@@ -167,9 +141,6 @@
     <t>HOUSE NO 393 WARD NO 11 GEETA COLONY ASSANDH KARNAL HARYANA 132001</t>
   </si>
   <si>
-    <t>11015002720</t>
-  </si>
-  <si>
     <t>PRIYANSHU</t>
   </si>
   <si>
@@ -191,9 +162,6 @@
     <t>D-209 GALI NO 3 WEST VINOD NAGAR EAST DELHI DELHI 110092</t>
   </si>
   <si>
-    <t>11115002720</t>
-  </si>
-  <si>
     <t>PRIYANSHU SHARMA</t>
   </si>
   <si>
@@ -257,16 +225,28 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Regular</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
-    <t>Upgrade</t>
-  </si>
-  <si>
     <t>Admitted</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>OUTSIDE DELHI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>UPGRADE</t>
   </si>
 </sst>
 </file>
@@ -681,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8360063F-060B-459A-9DA4-4780CAD18F7E}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,93 +687,91 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="3">
-        <v>10715002720</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="b">
         <v>1</v>
@@ -802,52 +780,52 @@
         <v>43842</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L2" s="5">
         <v>36878</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="3">
         <v>268413</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T2" s="3">
         <v>1245345</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V2" s="3">
         <v>32424254</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X2" s="3">
         <v>67.8</v>
@@ -858,16 +836,14 @@
     </row>
     <row r="3" spans="1:25" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>0</v>
@@ -876,52 +852,52 @@
         <v>44209</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L3" s="5">
         <v>37224</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="3">
         <v>67647</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T3" s="3">
         <v>34543543</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="V3" s="3">
         <v>354325235</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="X3" s="3">
         <v>78.900000000000006</v>
@@ -932,16 +908,14 @@
     </row>
     <row r="4" spans="1:25" ht="69" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>1</v>
@@ -950,52 +924,52 @@
         <v>43842</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L4" s="5">
         <v>37479</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="3">
         <v>46010</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T4" s="3">
         <v>43543543</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="V4" s="4">
         <v>32453532543</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="X4" s="3">
         <v>89.6</v>
@@ -1006,16 +980,14 @@
     </row>
     <row r="5" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>0</v>
@@ -1024,52 +996,52 @@
         <v>44631</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="L5" s="5">
         <v>37535</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="P5" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="3">
         <v>390687</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T5" s="3">
         <v>578576575</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V5" s="4">
         <v>234534535</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="X5" s="3">
         <v>76.900000000000006</v>
@@ -1080,16 +1052,14 @@
     </row>
     <row r="6" spans="1:25" ht="69" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
@@ -1098,52 +1068,52 @@
         <v>44265</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L6" s="5">
         <v>37288</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="3">
         <v>78505</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="T6" s="3">
         <v>5675675</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="V6" s="4">
         <v>54675676547</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X6" s="3">
         <v>56.4</v>
@@ -1154,16 +1124,14 @@
     </row>
     <row r="7" spans="1:25" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
-        <v>10715002720</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3" t="b">
         <v>1</v>
@@ -1175,49 +1143,49 @@
         <v>201160306112</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="L7" s="5">
         <v>36878</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="3">
         <v>268413</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="T7" s="3">
         <v>879789789</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="V7" s="3">
         <v>5637456435</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X7" s="3">
         <v>67.900000000000006</v>
